--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_96_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_96_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.064646331974906, 3.503328228440264]</t>
+          <t>[3.070819013788307, 3.4971555466268627]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.2931730904809289, 0.5532645155223541]</t>
+          <t>[0.29334946934883144, 0.5530881366544516]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>4.674854281461194e-08</v>
+        <v>4.534469466577207e-08</v>
       </c>
       <c r="V2" t="n">
-        <v>4.674854281461194e-08</v>
+        <v>4.534469466577207e-08</v>
       </c>
       <c r="W2" t="n">
         <v>11.8306306306308</v>
